--- a/data/trans_orig/P36BPD09_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A986BD2-3579-4F01-90A1-ED2BC2E308A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0C4F71-3638-4068-8414-BBE5D93EC04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A738669F-2DF1-4633-BEA2-6F8C9A197CF3}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FCD06A84-B8AC-4D7D-BD81-956625048306}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -77,25 +77,25 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>7,07%</t>
+    <t>7,17%</t>
   </si>
   <si>
     <t>3,38%</t>
   </si>
   <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
   </si>
   <si>
     <t>2,8%</t>
   </si>
   <si>
-    <t>1,23%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>5,41%</t>
   </si>
   <si>
     <t>Una o dos a la semana</t>
@@ -104,28 +104,28 @@
     <t>55,96%</t>
   </si>
   <si>
-    <t>45,47%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
   </si>
   <si>
     <t>55,93%</t>
   </si>
   <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>62,82%</t>
+    <t>48,98%</t>
+  </si>
+  <si>
+    <t>62,87%</t>
   </si>
   <si>
     <t>55,95%</t>
   </si>
   <si>
-    <t>49,75%</t>
-  </si>
-  <si>
-    <t>62,46%</t>
+    <t>49,97%</t>
+  </si>
+  <si>
+    <t>61,62%</t>
   </si>
   <si>
     <t>Tres o más por semana</t>
@@ -134,28 +134,28 @@
     <t>41,98%</t>
   </si>
   <si>
-    <t>31,51%</t>
-  </si>
-  <si>
-    <t>52,22%</t>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>52,57%</t>
   </si>
   <si>
     <t>40,69%</t>
   </si>
   <si>
-    <t>33,91%</t>
-  </si>
-  <si>
-    <t>47,62%</t>
+    <t>33,65%</t>
+  </si>
+  <si>
+    <t>47,16%</t>
   </si>
   <si>
     <t>41,25%</t>
   </si>
   <si>
-    <t>35,11%</t>
-  </si>
-  <si>
-    <t>47,49%</t>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>46,91%</t>
   </si>
   <si>
     <t>100%</t>
@@ -167,412 +167,409 @@
     <t>3,48%</t>
   </si>
   <si>
-    <t>2,04%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
   </si>
   <si>
     <t>3,86%</t>
   </si>
   <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
   </si>
   <si>
     <t>3,68%</t>
   </si>
   <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>4,98%</t>
   </si>
   <si>
     <t>64,95%</t>
   </si>
   <si>
+    <t>60,12%</t>
+  </si>
+  <si>
+    <t>69,05%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>57,67%</t>
+  </si>
+  <si>
+    <t>64,24%</t>
+  </si>
+  <si>
+    <t>60,23%</t>
+  </si>
+  <si>
+    <t>65,31%</t>
+  </si>
+  <si>
+    <t>31,57%</t>
+  </si>
+  <si>
+    <t>27,54%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>35,19%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>38,57%</t>
+  </si>
+  <si>
+    <t>33,45%</t>
+  </si>
+  <si>
+    <t>30,91%</t>
+  </si>
+  <si>
+    <t>36,22%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,21%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>63,99%</t>
+  </si>
+  <si>
+    <t>53,33%</t>
+  </si>
+  <si>
+    <t>68,84%</t>
+  </si>
+  <si>
+    <t>65,57%</t>
+  </si>
+  <si>
+    <t>62,99%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
+  </si>
+  <si>
+    <t>64,78%</t>
+  </si>
+  <si>
+    <t>58,58%</t>
+  </si>
+  <si>
+    <t>67,45%</t>
+  </si>
+  <si>
+    <t>29,05%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>40,82%</t>
+  </si>
+  <si>
+    <t>27,82%</t>
+  </si>
+  <si>
+    <t>25,36%</t>
+  </si>
+  <si>
+    <t>30,19%</t>
+  </si>
+  <si>
+    <t>28,43%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,19%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>62,78%</t>
+  </si>
+  <si>
+    <t>58,59%</t>
+  </si>
+  <si>
+    <t>66,72%</t>
+  </si>
+  <si>
+    <t>55,15%</t>
+  </si>
+  <si>
+    <t>37,17%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>64,09%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>24,95%</t>
+  </si>
+  <si>
+    <t>32,72%</t>
+  </si>
+  <si>
+    <t>36,81%</t>
+  </si>
+  <si>
+    <t>26,77%</t>
+  </si>
+  <si>
+    <t>57,78%</t>
+  </si>
+  <si>
+    <t>33,19%</t>
+  </si>
+  <si>
+    <t>27,48%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,12%</t>
+  </si>
+  <si>
+    <t>12,2%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>65,91%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>67,43%</t>
+  </si>
+  <si>
+    <t>64,58%</t>
+  </si>
+  <si>
+    <t>70,35%</t>
+  </si>
+  <si>
+    <t>66,73%</t>
+  </si>
+  <si>
+    <t>64,66%</t>
+  </si>
+  <si>
+    <t>68,72%</t>
+  </si>
+  <si>
+    <t>24,1%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>27,01%</t>
+  </si>
+  <si>
+    <t>23,45%</t>
+  </si>
+  <si>
+    <t>20,93%</t>
+  </si>
+  <si>
+    <t>26,14%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>21,98%</t>
+  </si>
+  <si>
+    <t>25,63%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,35%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,28%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
     <t>60,67%</t>
   </si>
   <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>57,59%</t>
-  </si>
-  <si>
-    <t>64,23%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>60,21%</t>
-  </si>
-  <si>
-    <t>65,49%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>27,45%</t>
-  </si>
-  <si>
-    <t>35,83%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,8%</t>
-  </si>
-  <si>
-    <t>36,05%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>8,14%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>52,8%</t>
-  </si>
-  <si>
-    <t>68,5%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>62,53%</t>
-  </si>
-  <si>
-    <t>68,12%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>41,24%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>35,36%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,06%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>36,85%</t>
-  </si>
-  <si>
-    <t>64,48%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>45,75%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>26,64%</t>
-  </si>
-  <si>
-    <t>57,46%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>47,94%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>12,49%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>62,45%</t>
-  </si>
-  <si>
-    <t>68,87%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>64,64%</t>
-  </si>
-  <si>
-    <t>69,09%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,29%</t>
-  </si>
-  <si>
-    <t>27,21%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,83%</t>
-  </si>
-  <si>
-    <t>25,99%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,67%</t>
-  </si>
-  <si>
-    <t>25,76%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,8%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
+    <t>66,14%</t>
   </si>
   <si>
     <t>62,68%</t>
   </si>
   <si>
-    <t>55,97%</t>
-  </si>
-  <si>
-    <t>64,94%</t>
+    <t>55,6%</t>
+  </si>
+  <si>
+    <t>65,13%</t>
   </si>
   <si>
     <t>63,39%</t>
   </si>
   <si>
-    <t>60,11%</t>
-  </si>
-  <si>
-    <t>65,1%</t>
+    <t>59,41%</t>
+  </si>
+  <si>
+    <t>65,21%</t>
   </si>
   <si>
     <t>28,38%</t>
   </si>
   <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>31,93%</t>
   </si>
   <si>
     <t>30,16%</t>
   </si>
   <si>
-    <t>27,64%</t>
-  </si>
-  <si>
-    <t>37,65%</t>
+    <t>27,6%</t>
+  </si>
+  <si>
+    <t>38,01%</t>
   </si>
   <si>
     <t>29,32%</t>
   </si>
   <si>
-    <t>27,52%</t>
-  </si>
-  <si>
-    <t>33,33%</t>
+    <t>27,44%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -987,7 +984,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4A711E0-9448-439F-8FBD-4ABEAD55ED39}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A84B66-FC7C-4D6E-B2DD-E4DCAD1C618E}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1398,13 +1395,13 @@
         <v>716422</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1419,13 +1416,13 @@
         <v>172897</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>61</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>352</v>
@@ -1434,13 +1431,13 @@
         <v>208324</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>64</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>544</v>
@@ -1449,13 +1446,13 @@
         <v>381221</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>67</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1511,7 +1508,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -1523,13 +1520,13 @@
         <v>72387</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>84</v>
@@ -1538,13 +1535,13 @@
         <v>70053</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>147</v>
@@ -1553,13 +1550,13 @@
         <v>142441</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1574,13 +1571,13 @@
         <v>664992</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>990</v>
@@ -1589,13 +1586,13 @@
         <v>694034</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>1643</v>
@@ -1604,13 +1601,13 @@
         <v>1359025</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1625,13 +1622,13 @@
         <v>301869</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>440</v>
@@ -1640,13 +1637,13 @@
         <v>294451</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>688</v>
@@ -1655,13 +1652,13 @@
         <v>596320</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1717,7 +1714,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -1729,13 +1726,13 @@
         <v>61045</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -1744,13 +1741,13 @@
         <v>70290</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>153</v>
@@ -1759,13 +1756,13 @@
         <v>131335</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1780,13 +1777,13 @@
         <v>457544</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>664</v>
@@ -1795,13 +1792,13 @@
         <v>482225</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>1083</v>
@@ -1810,13 +1807,13 @@
         <v>939768</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1831,10 +1828,10 @@
         <v>210183</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>117</v>
@@ -2162,7 +2159,7 @@
         <v>156</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>157</v>
+        <v>100</v>
       </c>
       <c r="M24" s="7">
         <v>589</v>
@@ -2171,13 +2168,13 @@
         <v>522887</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2192,13 +2189,13 @@
         <v>2169436</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="H25" s="7">
         <v>3454</v>
@@ -2207,13 +2204,13 @@
         <v>2382121</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>5662</v>
@@ -2222,13 +2219,13 @@
         <v>4551557</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2243,13 +2240,13 @@
         <v>959260</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>1540</v>
@@ -2258,13 +2255,13 @@
         <v>1146190</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>2471</v>
@@ -2273,13 +2270,13 @@
         <v>2105450</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2335,7 +2332,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P36BPD09_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P36BPD09_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EF0C4F71-3638-4068-8414-BBE5D93EC04D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B44E2138-378D-47F6-A32B-2B1752D28DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{FCD06A84-B8AC-4D7D-BD81-956625048306}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{F225D3CE-482E-46D7-82FA-38724F0D2D61}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="153">
   <si>
     <t>Población según el número de raciones de legumbres que consumen a la semana en 2023 (Tasa respuesta: 99,76%)</t>
   </si>
@@ -65,511 +65,433 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Menos de una por semana</t>
   </si>
   <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>1,51%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
-  </si>
-  <si>
-    <t>5,41%</t>
+    <t>3,06%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
   </si>
   <si>
     <t>Una o dos a la semana</t>
   </si>
   <si>
-    <t>55,96%</t>
-  </si>
-  <si>
-    <t>45,45%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>48,98%</t>
-  </si>
-  <si>
-    <t>62,87%</t>
-  </si>
-  <si>
-    <t>55,95%</t>
-  </si>
-  <si>
-    <t>49,97%</t>
-  </si>
-  <si>
-    <t>61,62%</t>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>68,05%</t>
+  </si>
+  <si>
+    <t>60,08%</t>
+  </si>
+  <si>
+    <t>57,29%</t>
+  </si>
+  <si>
+    <t>63,11%</t>
+  </si>
+  <si>
+    <t>62,04%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>64,47%</t>
   </si>
   <si>
     <t>Tres o más por semana</t>
   </si>
   <si>
-    <t>41,98%</t>
-  </si>
-  <si>
-    <t>32,17%</t>
-  </si>
-  <si>
-    <t>52,57%</t>
-  </si>
-  <si>
-    <t>40,69%</t>
-  </si>
-  <si>
-    <t>33,65%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>41,25%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>46,91%</t>
+    <t>32,8%</t>
+  </si>
+  <si>
+    <t>28,86%</t>
+  </si>
+  <si>
+    <t>37,02%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>39,32%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>32,3%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>3,68%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>60,12%</t>
-  </si>
-  <si>
-    <t>69,05%</t>
-  </si>
-  <si>
-    <t>60,94%</t>
-  </si>
-  <si>
-    <t>57,67%</t>
-  </si>
-  <si>
-    <t>64,24%</t>
-  </si>
-  <si>
-    <t>60,23%</t>
-  </si>
-  <si>
-    <t>65,31%</t>
-  </si>
-  <si>
-    <t>31,57%</t>
-  </si>
-  <si>
-    <t>27,54%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>35,19%</t>
-  </si>
-  <si>
-    <t>32,06%</t>
-  </si>
-  <si>
-    <t>38,57%</t>
-  </si>
-  <si>
-    <t>33,45%</t>
-  </si>
-  <si>
-    <t>30,91%</t>
-  </si>
-  <si>
-    <t>36,22%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>63,99%</t>
-  </si>
-  <si>
-    <t>53,33%</t>
-  </si>
-  <si>
-    <t>68,84%</t>
-  </si>
-  <si>
-    <t>65,57%</t>
-  </si>
-  <si>
-    <t>62,99%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>64,78%</t>
-  </si>
-  <si>
-    <t>58,58%</t>
-  </si>
-  <si>
-    <t>67,45%</t>
-  </si>
-  <si>
-    <t>29,05%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>40,82%</t>
-  </si>
-  <si>
-    <t>27,82%</t>
-  </si>
-  <si>
-    <t>25,36%</t>
-  </si>
-  <si>
-    <t>30,19%</t>
-  </si>
-  <si>
-    <t>28,43%</t>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>3,0%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,17%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,36%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>28,95%</t>
+  </si>
+  <si>
+    <t>69,2%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>62,95%</t>
+  </si>
+  <si>
+    <t>68,09%</t>
+  </si>
+  <si>
+    <t>59,13%</t>
+  </si>
+  <si>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>67,51%</t>
+  </si>
+  <si>
+    <t>40,26%</t>
+  </si>
+  <si>
+    <t>23,92%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>28,05%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>30,41%</t>
+  </si>
+  <si>
+    <t>34,82%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>58,1%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>8,3%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>58,44%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>54,26%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>63,22%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>25,13%</t>
+  </si>
+  <si>
+    <t>33,31%</t>
+  </si>
+  <si>
+    <t>45,18%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>70,58%</t>
+  </si>
+  <si>
+    <t>38,25%</t>
+  </si>
+  <si>
+    <t>28,33%</t>
+  </si>
+  <si>
+    <t>59,78%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,06%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>65,9%</t>
+  </si>
+  <si>
+    <t>62,52%</t>
+  </si>
+  <si>
+    <t>69,01%</t>
+  </si>
+  <si>
+    <t>69,53%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>76,35%</t>
+  </si>
+  <si>
+    <t>67,86%</t>
+  </si>
+  <si>
+    <t>65,69%</t>
+  </si>
+  <si>
+    <t>71,46%</t>
+  </si>
+  <si>
+    <t>24,04%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>27,06%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>16,84%</t>
+  </si>
+  <si>
+    <t>24,52%</t>
+  </si>
+  <si>
+    <t>22,9%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
   </si>
   <si>
     <t>8,19%</t>
   </si>
   <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>62,78%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>66,72%</t>
-  </si>
-  <si>
-    <t>55,15%</t>
-  </si>
-  <si>
-    <t>37,17%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
-  </si>
-  <si>
-    <t>64,09%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>24,95%</t>
-  </si>
-  <si>
-    <t>32,72%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>26,77%</t>
-  </si>
-  <si>
-    <t>57,78%</t>
-  </si>
-  <si>
-    <t>33,19%</t>
-  </si>
-  <si>
-    <t>27,48%</t>
-  </si>
-  <si>
-    <t>48,08%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,12%</t>
-  </si>
-  <si>
-    <t>12,2%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>65,91%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>67,43%</t>
-  </si>
-  <si>
-    <t>64,58%</t>
-  </si>
-  <si>
-    <t>70,35%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>64,66%</t>
-  </si>
-  <si>
-    <t>68,72%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>27,01%</t>
-  </si>
-  <si>
-    <t>23,45%</t>
-  </si>
-  <si>
-    <t>20,93%</t>
-  </si>
-  <si>
-    <t>26,14%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>21,98%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,35%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>7,28%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>60,67%</t>
-  </si>
-  <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>62,68%</t>
-  </si>
-  <si>
-    <t>55,6%</t>
-  </si>
-  <si>
-    <t>65,13%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>59,41%</t>
-  </si>
-  <si>
-    <t>65,21%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>31,93%</t>
-  </si>
-  <si>
-    <t>30,16%</t>
-  </si>
-  <si>
-    <t>27,6%</t>
-  </si>
-  <si>
-    <t>38,01%</t>
-  </si>
-  <si>
-    <t>29,32%</t>
-  </si>
-  <si>
-    <t>27,44%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>6,68%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>48,48%</t>
+  </si>
+  <si>
+    <t>65,97%</t>
+  </si>
+  <si>
+    <t>61,22%</t>
+  </si>
+  <si>
+    <t>48,8%</t>
+  </si>
+  <si>
+    <t>65,67%</t>
+  </si>
+  <si>
+    <t>61,02%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>65,3%</t>
+  </si>
+  <si>
+    <t>32,27%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>46,01%</t>
+  </si>
+  <si>
+    <t>32,1%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>45,68%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>27,41%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -984,8 +906,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67A84B66-FC7C-4D6E-B2DD-E4DCAD1C618E}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{667EC962-8B1F-4C1E-A492-5A44183EF1EE}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1102,10 +1024,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D4" s="7">
-        <v>2061</v>
+        <v>19333</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1117,10 +1039,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="I4" s="7">
-        <v>4393</v>
+        <v>25289</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1132,10 +1054,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>10</v>
+        <v>66</v>
       </c>
       <c r="N4" s="7">
-        <v>6453</v>
+        <v>44622</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1153,10 +1075,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>68</v>
+        <v>467</v>
       </c>
       <c r="D5" s="7">
-        <v>56069</v>
+        <v>405143</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1168,10 +1090,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>134</v>
+        <v>738</v>
       </c>
       <c r="I5" s="7">
-        <v>72774</v>
+        <v>405051</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1183,10 +1105,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>202</v>
+        <v>1205</v>
       </c>
       <c r="N5" s="7">
-        <v>128842</v>
+        <v>810194</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1204,10 +1126,10 @@
         <v>30</v>
       </c>
       <c r="C6" s="7">
-        <v>46</v>
+        <v>238</v>
       </c>
       <c r="D6" s="7">
-        <v>42057</v>
+        <v>207191</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>31</v>
@@ -1219,10 +1141,10 @@
         <v>33</v>
       </c>
       <c r="H6" s="7">
-        <v>100</v>
+        <v>452</v>
       </c>
       <c r="I6" s="7">
-        <v>52947</v>
+        <v>243841</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>34</v>
@@ -1234,10 +1156,10 @@
         <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>146</v>
+        <v>690</v>
       </c>
       <c r="N6" s="7">
-        <v>95003</v>
+        <v>451032</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>37</v>
@@ -1255,10 +1177,10 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>116</v>
+        <v>725</v>
       </c>
       <c r="D7" s="7">
-        <v>100186</v>
+        <v>631667</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -1270,10 +1192,10 @@
         <v>40</v>
       </c>
       <c r="H7" s="7">
-        <v>242</v>
+        <v>1236</v>
       </c>
       <c r="I7" s="7">
-        <v>130113</v>
+        <v>674181</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -1285,10 +1207,10 @@
         <v>40</v>
       </c>
       <c r="M7" s="7">
-        <v>358</v>
+        <v>1961</v>
       </c>
       <c r="N7" s="7">
-        <v>230299</v>
+        <v>1305848</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -1308,10 +1230,10 @@
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>63</v>
       </c>
       <c r="D8" s="7">
-        <v>19035</v>
+        <v>68183</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>42</v>
@@ -1323,10 +1245,10 @@
         <v>44</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>84</v>
       </c>
       <c r="I8" s="7">
-        <v>22864</v>
+        <v>61793</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>45</v>
@@ -1338,10 +1260,10 @@
         <v>47</v>
       </c>
       <c r="M8" s="7">
-        <v>56</v>
+        <v>147</v>
       </c>
       <c r="N8" s="7">
-        <v>41899</v>
+        <v>129976</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>48</v>
@@ -1359,10 +1281,10 @@
         <v>20</v>
       </c>
       <c r="C9" s="7">
-        <v>399</v>
+        <v>653</v>
       </c>
       <c r="D9" s="7">
-        <v>355693</v>
+        <v>644443</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>51</v>
@@ -1374,10 +1296,10 @@
         <v>53</v>
       </c>
       <c r="H9" s="7">
-        <v>604</v>
+        <v>990</v>
       </c>
       <c r="I9" s="7">
-        <v>360729</v>
+        <v>626951</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>54</v>
@@ -1389,19 +1311,19 @@
         <v>56</v>
       </c>
       <c r="M9" s="7">
-        <v>1003</v>
+        <v>1643</v>
       </c>
       <c r="N9" s="7">
-        <v>716422</v>
+        <v>1271393</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1410,49 +1332,49 @@
         <v>30</v>
       </c>
       <c r="C10" s="7">
-        <v>192</v>
+        <v>248</v>
       </c>
       <c r="D10" s="7">
-        <v>172897</v>
+        <v>480238</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
-        <v>352</v>
+        <v>440</v>
       </c>
       <c r="I10" s="7">
-        <v>208324</v>
+        <v>268489</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
-        <v>544</v>
+        <v>688</v>
       </c>
       <c r="N10" s="7">
-        <v>381221</v>
+        <v>748728</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1461,10 +1383,10 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>609</v>
+        <v>964</v>
       </c>
       <c r="D11" s="7">
-        <v>547624</v>
+        <v>1192864</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -1476,10 +1398,10 @@
         <v>40</v>
       </c>
       <c r="H11" s="7">
-        <v>994</v>
+        <v>1514</v>
       </c>
       <c r="I11" s="7">
-        <v>591918</v>
+        <v>957233</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -1491,10 +1413,10 @@
         <v>40</v>
       </c>
       <c r="M11" s="7">
-        <v>1603</v>
+        <v>2478</v>
       </c>
       <c r="N11" s="7">
-        <v>1139542</v>
+        <v>2150097</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -1508,55 +1430,55 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D12" s="7">
-        <v>72387</v>
+        <v>58472</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I12" s="7">
-        <v>70053</v>
+        <v>64160</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="N12" s="7">
-        <v>142441</v>
+        <v>122632</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1565,49 +1487,49 @@
         <v>20</v>
       </c>
       <c r="C13" s="7">
-        <v>653</v>
+        <v>419</v>
       </c>
       <c r="D13" s="7">
-        <v>664992</v>
+        <v>441290</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
-        <v>990</v>
+        <v>664</v>
       </c>
       <c r="I13" s="7">
-        <v>694034</v>
+        <v>447530</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
-        <v>1643</v>
+        <v>1083</v>
       </c>
       <c r="N13" s="7">
-        <v>1359025</v>
+        <v>888820</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1616,49 +1538,49 @@
         <v>30</v>
       </c>
       <c r="C14" s="7">
-        <v>248</v>
+        <v>198</v>
       </c>
       <c r="D14" s="7">
-        <v>301869</v>
+        <v>204918</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
-        <v>440</v>
+        <v>289</v>
       </c>
       <c r="I14" s="7">
-        <v>294451</v>
+        <v>421676</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
-        <v>688</v>
+        <v>487</v>
       </c>
       <c r="N14" s="7">
-        <v>596320</v>
+        <v>626594</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1667,10 +1589,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D15" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -1682,10 +1604,10 @@
         <v>40</v>
       </c>
       <c r="H15" s="7">
-        <v>1514</v>
+        <v>1047</v>
       </c>
       <c r="I15" s="7">
-        <v>1058538</v>
+        <v>933366</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -1697,10 +1619,10 @@
         <v>40</v>
       </c>
       <c r="M15" s="7">
-        <v>2478</v>
+        <v>1723</v>
       </c>
       <c r="N15" s="7">
-        <v>2097786</v>
+        <v>1638046</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -1714,55 +1636,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="D16" s="7">
-        <v>61045</v>
+        <v>93093</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
-        <v>94</v>
+        <v>135</v>
       </c>
       <c r="I16" s="7">
-        <v>70290</v>
+        <v>92954</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
-        <v>153</v>
+        <v>223</v>
       </c>
       <c r="N16" s="7">
-        <v>131335</v>
+        <v>186046</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1771,49 +1693,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>419</v>
+        <v>669</v>
       </c>
       <c r="D17" s="7">
-        <v>457544</v>
+        <v>609689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
-        <v>664</v>
+        <v>1062</v>
       </c>
       <c r="I17" s="7">
-        <v>482225</v>
+        <v>758149</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
-        <v>1083</v>
+        <v>1731</v>
       </c>
       <c r="N17" s="7">
-        <v>939768</v>
+        <v>1367838</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1822,49 +1744,49 @@
         <v>30</v>
       </c>
       <c r="C18" s="7">
-        <v>198</v>
+        <v>247</v>
       </c>
       <c r="D18" s="7">
-        <v>210183</v>
+        <v>222426</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
-        <v>289</v>
+        <v>359</v>
       </c>
       <c r="I18" s="7">
-        <v>321856</v>
+        <v>239230</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
-        <v>487</v>
+        <v>606</v>
       </c>
       <c r="N18" s="7">
-        <v>532039</v>
+        <v>461656</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -1873,10 +1795,10 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>676</v>
+        <v>1004</v>
       </c>
       <c r="D19" s="7">
-        <v>728772</v>
+        <v>925208</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -1888,10 +1810,10 @@
         <v>40</v>
       </c>
       <c r="H19" s="7">
-        <v>1047</v>
+        <v>1556</v>
       </c>
       <c r="I19" s="7">
-        <v>874371</v>
+        <v>1090332</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -1903,10 +1825,10 @@
         <v>40</v>
       </c>
       <c r="M19" s="7">
-        <v>1723</v>
+        <v>2560</v>
       </c>
       <c r="N19" s="7">
-        <v>1603142</v>
+        <v>2015540</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -1920,16 +1842,16 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>124</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>88</v>
+        <v>230</v>
       </c>
       <c r="D20" s="7">
-        <v>96254</v>
+        <v>239080</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>125</v>
@@ -1941,10 +1863,10 @@
         <v>127</v>
       </c>
       <c r="H20" s="7">
-        <v>135</v>
+        <v>359</v>
       </c>
       <c r="I20" s="7">
-        <v>104505</v>
+        <v>244195</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>128</v>
@@ -1956,10 +1878,10 @@
         <v>130</v>
       </c>
       <c r="M20" s="7">
-        <v>223</v>
+        <v>589</v>
       </c>
       <c r="N20" s="7">
-        <v>200758</v>
+        <v>483276</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>131</v>
@@ -1977,10 +1899,10 @@
         <v>20</v>
       </c>
       <c r="C21" s="7">
-        <v>669</v>
+        <v>2208</v>
       </c>
       <c r="D21" s="7">
-        <v>635138</v>
+        <v>2100565</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>134</v>
@@ -1992,10 +1914,10 @@
         <v>136</v>
       </c>
       <c r="H21" s="7">
-        <v>1062</v>
+        <v>3454</v>
       </c>
       <c r="I21" s="7">
-        <v>772361</v>
+        <v>2237680</v>
       </c>
       <c r="J21" s="7" t="s">
         <v>137</v>
@@ -2007,10 +1929,10 @@
         <v>139</v>
       </c>
       <c r="M21" s="7">
-        <v>1731</v>
+        <v>5662</v>
       </c>
       <c r="N21" s="7">
-        <v>1407499</v>
+        <v>4338246</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>140</v>
@@ -2028,10 +1950,10 @@
         <v>30</v>
       </c>
       <c r="C22" s="7">
-        <v>247</v>
+        <v>931</v>
       </c>
       <c r="D22" s="7">
-        <v>232255</v>
+        <v>1114774</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>143</v>
@@ -2043,10 +1965,10 @@
         <v>145</v>
       </c>
       <c r="H22" s="7">
-        <v>359</v>
+        <v>1540</v>
       </c>
       <c r="I22" s="7">
-        <v>268612</v>
+        <v>1173237</v>
       </c>
       <c r="J22" s="7" t="s">
         <v>146</v>
@@ -2058,10 +1980,10 @@
         <v>148</v>
       </c>
       <c r="M22" s="7">
-        <v>606</v>
+        <v>2471</v>
       </c>
       <c r="N22" s="7">
-        <v>500867</v>
+        <v>2288011</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>149</v>
@@ -2079,10 +2001,10 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>1004</v>
+        <v>3369</v>
       </c>
       <c r="D23" s="7">
-        <v>963647</v>
+        <v>3454419</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -2094,10 +2016,10 @@
         <v>40</v>
       </c>
       <c r="H23" s="7">
-        <v>1556</v>
+        <v>5353</v>
       </c>
       <c r="I23" s="7">
-        <v>1145477</v>
+        <v>3655112</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -2109,10 +2031,10 @@
         <v>40</v>
       </c>
       <c r="M23" s="7">
-        <v>2560</v>
+        <v>8722</v>
       </c>
       <c r="N23" s="7">
-        <v>2109124</v>
+        <v>7109532</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -2125,222 +2047,15 @@
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>230</v>
-      </c>
-      <c r="D24" s="7">
-        <v>250782</v>
-      </c>
-      <c r="E24" s="7" t="s">
+      <c r="A24" t="s">
         <v>152</v>
       </c>
-      <c r="F24" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="H24" s="7">
-        <v>359</v>
-      </c>
-      <c r="I24" s="7">
-        <v>272105</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="M24" s="7">
-        <v>589</v>
-      </c>
-      <c r="N24" s="7">
-        <v>522887</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" s="7">
-        <v>2208</v>
-      </c>
-      <c r="D25" s="7">
-        <v>2169436</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>162</v>
-      </c>
-      <c r="H25" s="7">
-        <v>3454</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2382121</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="M25" s="7">
-        <v>5662</v>
-      </c>
-      <c r="N25" s="7">
-        <v>4551557</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>167</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="7">
-        <v>931</v>
-      </c>
-      <c r="D26" s="7">
-        <v>959260</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>170</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="H26" s="7">
-        <v>1540</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1146190</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="M26" s="7">
-        <v>2471</v>
-      </c>
-      <c r="N26" s="7">
-        <v>2105450</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>3369</v>
-      </c>
-      <c r="D27" s="7">
-        <v>3379478</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H27" s="7">
-        <v>5353</v>
-      </c>
-      <c r="I27" s="7">
-        <v>3800416</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M27" s="7">
-        <v>8722</v>
-      </c>
-      <c r="N27" s="7">
-        <v>7179893</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>178</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
